--- a/sugerenciasExternasPP2/sugerenciasExternasPP2.vistas/src/main/resources/Sugerencias.xlsx
+++ b/sugerenciasExternasPP2/sugerenciasExternasPP2.vistas/src/main/resources/Sugerencias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>local</t>
   </si>
@@ -43,9 +43,6 @@
     <t>50</t>
   </si>
   <si>
-    <t>20/09/2018</t>
-  </si>
-  <si>
     <t>san miguel</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>40</t>
   </si>
   <si>
-    <t>18/09/2018</t>
-  </si>
-  <si>
     <t>lComidas</t>
   </si>
   <si>
@@ -65,6 +59,9 @@
   </si>
   <si>
     <t>postres</t>
+  </si>
+  <si>
+    <t>31--12--2018</t>
   </si>
 </sst>
 </file>
@@ -105,9 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +403,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -430,7 +428,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -446,11 +444,11 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -458,19 +456,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
